--- a/mike.yuan/map_1.xlsx
+++ b/mike.yuan/map_1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db94ce6c2ddf1ce7/Lobster_v1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8604B55E-3CD5-49D3-95DD-4ED49B03032E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{8604B55E-3CD5-49D3-95DD-4ED49B03032E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C4A3554-A6AB-4687-A1A7-A3CE3D9D2E81}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -832,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,9 +923,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1354,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2888,8 +2884,8 @@
       <c r="T13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="2" t="s">
-        <v>0</v>
+      <c r="U13" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="V13" s="22" t="s">
         <v>16</v>
@@ -3123,8 +3119,8 @@
       <c r="Q15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>0</v>
+      <c r="R15" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="S15" s="22" t="s">
         <v>16</v>
@@ -3141,8 +3137,8 @@
       <c r="W15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="X15" s="2" t="s">
-        <v>0</v>
+      <c r="X15" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="Y15" s="22" t="s">
         <v>16</v>
@@ -3248,8 +3244,8 @@
       <c r="R16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S16" s="31" t="s">
-        <v>0</v>
+      <c r="S16" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="T16" s="30" t="s">
         <v>23</v>
@@ -3266,8 +3262,8 @@
       <c r="X16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Y16" s="2" t="s">
-        <v>0</v>
+      <c r="Y16" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="Z16" s="27" t="s">
         <v>13</v>
@@ -3501,8 +3497,8 @@
       <c r="U18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>0</v>
+      <c r="V18" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="W18" s="30" t="s">
         <v>23</v>
